--- a/Wire Calc.xlsx
+++ b/Wire Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wirecalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B7FF0E8-A7AB-479E-AE41-30E153F44B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A108D-A32E-4272-AB86-84CFE72D59D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27690" yWindow="16275" windowWidth="27480" windowHeight="14760" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
+    <workbookView xWindow="9405" yWindow="12435" windowWidth="26505" windowHeight="13665" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>CM</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Power Dissipation/Foot (W)</t>
+  </si>
+  <si>
+    <t>Percentage Drops to Calculate ---&gt;</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -556,6 +559,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -908,10 +914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6160F14-17FF-43FD-8607-D1AC0951663E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,713 +936,730 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="D1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C3" s="17">
         <v>12</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="18">
-        <f>(10.75*A2*B2/(0.03 * $C$2))/$D$2</f>
+      <c r="G3" s="18">
+        <f>(10.75*$A$3*$B$3/(($G$1/100) * $C$3))/$D$3</f>
         <v>29.861111111111111</v>
       </c>
-      <c r="H2" s="19">
-        <f>(10.75*A2*B2/(0.05*$C$2))/$D$2</f>
+      <c r="H3" s="19">
+        <f>(10.75*$A$3*$B$3/(($H$1/100)*$C$3))/$D$3</f>
         <v>17.916666666666664</v>
       </c>
-      <c r="I2" s="20">
-        <f>(10.75*A2*B2/(0.1*$C$2))/$D$2</f>
+      <c r="I3" s="20">
+        <f>(10.75*$A$3*$B$3/(($I$1/100)*$C$3))/$D$3</f>
         <v>8.9583333333333321</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="14" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2600</v>
-      </c>
-      <c r="C7" s="4">
-        <f>B7/1973.83</f>
-        <v>1.3172360334983257</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6">
-        <f>E7*0.85</f>
-        <v>21.25</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7:G11" si="0">IF($F$2="No",IF($E$2="No",E7,F7),E7*0.7)</f>
-        <v>25</v>
-      </c>
-      <c r="H7" s="32">
-        <f t="shared" ref="H7:H19" si="1">($A$2*$B$2*D7/1000)/$D$2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I7" s="32">
-        <f t="shared" ref="I7:I19" si="2">(10.75*$B$2*$A$2/B7)/$D$2</f>
-        <v>4.134615384615385E-3</v>
-      </c>
-      <c r="J7" s="32">
-        <f>$A$2*H7</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K7" s="32">
-        <f>J7/$B$2</f>
-        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>4100</v>
+        <v>2600</v>
       </c>
       <c r="C8" s="4">
         <f>B8/1973.83</f>
+        <v>1.3172360334983257</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6">
+        <f>E8*0.85</f>
+        <v>21.25</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G12" si="0">IF($F$3="No",IF($E$3="No",E8,F8),E8*0.7)</f>
+        <v>25</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" ref="H8:H20" si="1">($A$3*$B$3*D8/1000)/$D$3</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" ref="I8:I20" si="2">(10.75*$B$3*$A$3/B8)/$D$3</f>
+        <v>4.134615384615385E-3</v>
+      </c>
+      <c r="J8" s="32">
+        <f>$A$3*H8</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="32">
+        <f>J8/$B$3</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4100</v>
+      </c>
+      <c r="C9" s="4">
+        <f>B9/1973.83</f>
         <v>2.0771798989781289</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>35</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F19" si="3">E8*0.85</f>
+      <c r="F9" s="6">
+        <f t="shared" ref="F9:F20" si="3">E9*0.85</f>
         <v>29.75</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H9" s="32">
         <f t="shared" si="1"/>
         <v>2.5299999999999997E-3</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I9" s="32">
         <f t="shared" si="2"/>
         <v>2.6219512195121953E-3</v>
       </c>
-      <c r="J8" s="32">
-        <f t="shared" ref="J8:J19" si="4">$A$2*H8</f>
+      <c r="J9" s="32">
+        <f t="shared" ref="J9:J20" si="4">$A$3*H9</f>
         <v>2.5299999999999997E-3</v>
       </c>
-      <c r="K8" s="32">
-        <f t="shared" ref="K8:K19" si="5">J8/$B$2</f>
+      <c r="K9" s="32">
+        <f t="shared" ref="K9:K20" si="5">J9/$B$3</f>
         <v>2.5299999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>6500</v>
       </c>
-      <c r="C9" s="4">
-        <f>B9/1973.83</f>
+      <c r="C10" s="4">
+        <f>B10/1973.83</f>
         <v>3.2930900837458141</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>1.75</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>45</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <f t="shared" si="3"/>
         <v>38.25</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H10" s="32">
         <f t="shared" si="1"/>
         <v>1.75E-3</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I10" s="32">
         <f t="shared" si="2"/>
         <v>1.6538461538461537E-3</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J10" s="32">
         <f t="shared" si="4"/>
         <v>1.75E-3</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K10" s="32">
         <f t="shared" si="5"/>
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>10500</v>
       </c>
-      <c r="C10" s="4">
-        <f>B10/1973.83</f>
+      <c r="C11" s="4">
+        <f>B11/1973.83</f>
         <v>5.3196070583586224</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H11" s="32">
         <f t="shared" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I11" s="32">
         <f t="shared" si="2"/>
         <v>1.0238095238095238E-3</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J11" s="32">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K11" s="32">
         <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>16800</v>
       </c>
-      <c r="C11" s="4">
-        <f>B11/1973.83</f>
+      <c r="C12" s="4">
+        <f>B12/1973.83</f>
         <v>8.5113712933737968</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>0.62</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>80</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H12" s="32">
         <f t="shared" si="1"/>
         <v>6.2E-4</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I12" s="32">
         <f t="shared" si="2"/>
         <v>6.3988095238095243E-4</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J12" s="32">
         <f t="shared" si="4"/>
         <v>6.2E-4</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K12" s="32">
         <f t="shared" si="5"/>
         <v>6.2E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>26600</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:C19" si="6">B12/1973.83</f>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:C20" si="6">B13/1973.83</f>
         <v>13.476337881175178</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="5">
         <v>0.4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>120</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="G12" s="6">
-        <f>IF($F$2="No",IF($E$2="No",E12,F12),E12*0.7)</f>
+      <c r="G13" s="6">
+        <f>IF($F$3="No",IF($E$3="No",E13,F13),E13*0.7)</f>
         <v>120</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H13" s="32">
         <f t="shared" si="1"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I13" s="32">
         <f t="shared" si="2"/>
         <v>4.0413533834586464E-4</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J13" s="32">
         <f t="shared" si="4"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K13" s="32">
         <f t="shared" si="5"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>42000</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <f t="shared" si="6"/>
         <v>21.278428233434489</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <v>0.24</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>160</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" ref="G13:G19" si="7">IF($F$2="No",IF($E$2="No",E13,F13),E13*0.7)</f>
+      <c r="G14" s="6">
+        <f t="shared" ref="G14:G20" si="7">IF($F$3="No",IF($E$3="No",E14,F14),E14*0.7)</f>
         <v>160</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H14" s="32">
         <f t="shared" si="1"/>
         <v>2.3999999999999998E-4</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I14" s="32">
         <f t="shared" si="2"/>
         <v>2.5595238095238096E-4</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J14" s="32">
         <f t="shared" si="4"/>
         <v>2.3999999999999998E-4</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K14" s="32">
         <f t="shared" si="5"/>
         <v>2.3999999999999998E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>66500</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <f t="shared" si="6"/>
         <v>33.690844702937945</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D15" s="5">
         <v>0.16</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>210</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <f t="shared" si="3"/>
         <v>178.5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H15" s="32">
         <f t="shared" si="1"/>
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I15" s="32">
         <f t="shared" si="2"/>
         <v>1.6165413533834587E-4</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J15" s="32">
         <f t="shared" si="4"/>
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K15" s="32">
         <f t="shared" si="5"/>
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>83690</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <f t="shared" si="6"/>
         <v>42.399801401336489</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>0.13</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>245</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>208.25</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <f t="shared" si="7"/>
         <v>245</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H16" s="32">
         <f t="shared" si="1"/>
         <v>1.3000000000000002E-4</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I16" s="32">
         <f t="shared" si="2"/>
         <v>1.2845023300274823E-4</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J16" s="32">
         <f t="shared" si="4"/>
         <v>1.3000000000000002E-4</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K16" s="32">
         <f t="shared" si="5"/>
         <v>1.3000000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>105600</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <f t="shared" si="6"/>
         <v>53.50004812977815</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>0.1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>285</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <f t="shared" si="3"/>
         <v>242.25</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <f t="shared" si="7"/>
         <v>285</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H17" s="32">
         <f t="shared" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I17" s="32">
         <f t="shared" si="2"/>
         <v>1.0179924242424243E-4</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J17" s="32">
         <f t="shared" si="4"/>
         <v>1E-4</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K17" s="32">
         <f t="shared" si="5"/>
         <v>1E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>133000</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <f t="shared" si="6"/>
         <v>67.381689405875889</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>0.08</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>330</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <f t="shared" si="3"/>
         <v>280.5</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <f t="shared" si="7"/>
         <v>330</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H18" s="32">
         <f t="shared" si="1"/>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I18" s="32">
         <f t="shared" si="2"/>
         <v>8.0827067669172936E-5</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J18" s="32">
         <f t="shared" si="4"/>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K18" s="32">
         <f t="shared" si="5"/>
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>167800</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <f t="shared" si="6"/>
         <v>85.012387085007319</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>0.06</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>385</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <f t="shared" si="3"/>
         <v>327.25</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <f t="shared" si="7"/>
         <v>385</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H19" s="32">
         <f t="shared" si="1"/>
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I19" s="32">
         <f t="shared" si="2"/>
         <v>6.4064362336114416E-5</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J19" s="32">
         <f t="shared" si="4"/>
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K19" s="32">
         <f t="shared" si="5"/>
         <v>5.9999999999999995E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>211600</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <f t="shared" si="6"/>
         <v>107.20274795701758</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>0.05</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>445</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>378.25</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <f t="shared" si="7"/>
         <v>445</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H20" s="32">
         <f t="shared" si="1"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I20" s="32">
         <f t="shared" si="2"/>
         <v>5.0803402646502838E-5</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J20" s="32">
         <f t="shared" si="4"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K20" s="32">
         <f t="shared" si="5"/>
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E5:G5"/>
+  <mergeCells count="3">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:K19">
+  <conditionalFormatting sqref="A8:K20">
     <cfRule type="expression" dxfId="3" priority="34" stopIfTrue="1">
-      <formula>AND($B7&gt;$G$2, $G7&gt;=$A$2)</formula>
+      <formula>AND($B8&gt;$G$3, $G8&gt;=$A$3)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="35" stopIfTrue="1">
-      <formula>AND($B7&gt;$H$2, $G7&gt;=$A$2)</formula>
+      <formula>AND($B8&gt;$H$3, $G8&gt;=$A$3)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
-      <formula>AND($B7&gt;$I$2, $G7&gt;=$A$2)</formula>
+      <formula>AND($B8&gt;$I$3, $G8&gt;=$A$3)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
-      <formula>OR($B7&lt;$G$2, $G7&lt;$A$2)</formula>
+      <formula>OR($B8&lt;$G$3, $G8&lt;$A$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F3" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Wire Calc.xlsx
+++ b/Wire Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wirecalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180A108D-A32E-4272-AB86-84CFE72D59D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1811F6-32D8-4E7A-8A78-C0DD260BAC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="12435" windowWidth="26505" windowHeight="13665" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
+    <workbookView xWindow="8610" yWindow="12900" windowWidth="26505" windowHeight="13665" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>CM</t>
   </si>
@@ -97,15 +97,6 @@
   </si>
   <si>
     <t># Wires Parallel</t>
-  </si>
-  <si>
-    <t>CM/wire for 3% drop</t>
-  </si>
-  <si>
-    <t>CM/wire for 5% drop</t>
-  </si>
-  <si>
-    <t>CM/wire for 10% drop</t>
   </si>
   <si>
     <t>In Engine Space?</t>
@@ -917,7 +908,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -965,19 +956,22 @@
         <v>23</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>26</v>
+      <c r="G2" s="8" t="str">
+        <f>CONCATENATE("CM/wire for ", $G$1, "% drop")</f>
+        <v>CM/wire for 3% drop</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f>CONCATENATE("CM/wire for ", $H$1, "% drop")</f>
+        <v>CM/wire for 5% drop</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>CONCATENATE("CM/wire for ", $I$1, "% drop")</f>
+        <v>CM/wire for 10% drop</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -996,10 +990,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" s="18">
         <f>(10.75*$A$3*$B$3/(($G$1/100) * $C$3))/$D$3</f>
@@ -1050,7 +1044,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="40"/>
@@ -1061,7 +1055,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -1079,17 +1073,17 @@
         <v>21</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>18</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">

--- a/Wire Calc.xlsx
+++ b/Wire Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wirecalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1811F6-32D8-4E7A-8A78-C0DD260BAC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E663DEC-6FBC-4F35-9FE3-C4F5BA514E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="12900" windowWidth="26505" windowHeight="13665" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
+    <workbookView xWindow="1020" yWindow="6840" windowWidth="27945" windowHeight="20370" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,53 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>CM</t>
   </si>
   <si>
-    <t>8AWG</t>
-  </si>
-  <si>
-    <t>6AWG</t>
-  </si>
-  <si>
-    <t>4AWG</t>
-  </si>
-  <si>
-    <t>2AWG</t>
-  </si>
-  <si>
-    <t>1AWG</t>
-  </si>
-  <si>
-    <t>0AWG</t>
-  </si>
-  <si>
-    <t>2/0AWG</t>
-  </si>
-  <si>
-    <t>3/0AWG</t>
-  </si>
-  <si>
-    <t>4/0AWG</t>
-  </si>
-  <si>
     <t>mm2</t>
   </si>
   <si>
-    <t>10AWG</t>
-  </si>
-  <si>
-    <t>12AWG</t>
-  </si>
-  <si>
-    <t>14AWG</t>
-  </si>
-  <si>
-    <t>16AWG</t>
-  </si>
-  <si>
     <t>Distance (feet)</t>
   </si>
   <si>
@@ -114,9 +75,6 @@
     <t>ABYC Single Wire Rated Ampacity (105C)</t>
   </si>
   <si>
-    <t>Gauge</t>
-  </si>
-  <si>
     <t>Total Power Dissipation (W)</t>
   </si>
   <si>
@@ -124,6 +82,69 @@
   </si>
   <si>
     <t>Percentage Drops to Calculate ---&gt;</t>
+  </si>
+  <si>
+    <t>Gauge (AWG)</t>
+  </si>
+  <si>
+    <t>Length (feet)</t>
+  </si>
+  <si>
+    <t>Power Dissipation(W)</t>
+  </si>
+  <si>
+    <t>Total Voltage Drop (V)</t>
+  </si>
+  <si>
+    <t>Total Voltage Drop (%)</t>
+  </si>
+  <si>
+    <t>Total Power Loss(W)</t>
+  </si>
+  <si>
+    <t>AWG 2/0</t>
+  </si>
+  <si>
+    <t>AWG 3/0</t>
+  </si>
+  <si>
+    <t>AWG 4/0</t>
+  </si>
+  <si>
+    <t>AWG 16</t>
+  </si>
+  <si>
+    <t>AWG 14</t>
+  </si>
+  <si>
+    <t>AWG 12</t>
+  </si>
+  <si>
+    <t>AWG 10</t>
+  </si>
+  <si>
+    <t>AWG 8</t>
+  </si>
+  <si>
+    <t>AWG 6</t>
+  </si>
+  <si>
+    <t>AWG 4</t>
+  </si>
+  <si>
+    <t>AWG 2</t>
+  </si>
+  <si>
+    <t>AWG 1</t>
+  </si>
+  <si>
+    <t>AWG 0</t>
+  </si>
+  <si>
+    <t>Segment over ampacity</t>
+  </si>
+  <si>
+    <t>In the table below you can construct a conducting path that consists of one or more cables.  For each segment you need to select the cable size, the current on that segment and the length.  You can also select wether the segment will be bundled or in an engine space.  The latter information is used to determine wether a segment is over ampacity.  The overall voltage drop and power dissipation of each segment and the total is calculated.  To use this, use the maximum current that will be flowing on a segment.  So, for example, if one segment is the main battery bank cable it may carry all the load, say 400A.  But a later cable may be for a single circuit and carry less.  Doing this will allow you to accurately get voltage drops for heavily subscribed segments.</t>
   </si>
 </sst>
 </file>
@@ -157,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,11 +461,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -553,6 +577,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -561,7 +601,491 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -905,33 +1429,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6160F14-17FF-43FD-8607-D1AC0951663E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="11" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="D1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1">
         <v>3</v>
       </c>
@@ -943,718 +1468,1428 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="8" t="str">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="str">
         <f>CONCATENATE("CM/wire for ", $G$1, "% drop")</f>
         <v>CM/wire for 3% drop</v>
       </c>
-      <c r="H2" s="8" t="str">
+      <c r="H2" s="7" t="str">
         <f>CONCATENATE("CM/wire for ", $H$1, "% drop")</f>
         <v>CM/wire for 5% drop</v>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="7" t="str">
         <f>CONCATENATE("CM/wire for ", $I$1, "% drop")</f>
         <v>CM/wire for 10% drop</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
+        <v>100</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="16">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="E3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="17">
+        <f>(10.75*$A$3*$B$3/(($G$1/100) * $C$3))/$D$3</f>
+        <v>4479.166666666667</v>
+      </c>
+      <c r="H3" s="18">
+        <f>(10.75*$A$3*$B$3/(($H$1/100)*$C$3))/$D$3</f>
+        <v>2687.4999999999995</v>
+      </c>
+      <c r="I3" s="19">
+        <f>(10.75*$A$3*$B$3/(($I$1/100)*$C$3))/$D$3</f>
+        <v>1343.7499999999998</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
-        <v>12</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="18">
-        <f>(10.75*$A$3*$B$3/(($G$1/100) * $C$3))/$D$3</f>
-        <v>29.861111111111111</v>
-      </c>
-      <c r="H3" s="19">
-        <f>(10.75*$A$3*$B$3/(($H$1/100)*$C$3))/$D$3</f>
-        <v>17.916666666666664</v>
-      </c>
-      <c r="I3" s="20">
-        <f>(10.75*$A$3*$B$3/(($I$1/100)*$C$3))/$D$3</f>
-        <v>8.9583333333333321</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="38" t="s">
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2600</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>B8/1973.83</f>
         <v>1.3172360334983257</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>25</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>E8*0.85</f>
         <v>21.25</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" ref="G8:G12" si="0">IF($F$3="No",IF($E$3="No",E8,F8),E8*0.7)</f>
         <v>25</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <f t="shared" ref="H8:H20" si="1">($A$3*$B$3*D8/1000)/$D$3</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="31">
         <f t="shared" ref="I8:I20" si="2">(10.75*$B$3*$A$3/B8)/$D$3</f>
-        <v>4.134615384615385E-3</v>
-      </c>
-      <c r="J8" s="32">
+        <v>0.62019230769230771</v>
+      </c>
+      <c r="J8" s="31">
         <f>$A$3*H8</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K8" s="32">
+        <v>60</v>
+      </c>
+      <c r="K8" s="31">
         <f>J8/$B$3</f>
-        <v>4.0000000000000001E-3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
         <v>4100</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>B9/1973.83</f>
         <v>2.0771798989781289</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>35</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" ref="F9:F20" si="3">E9*0.85</f>
         <v>29.75</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f t="shared" si="1"/>
-        <v>2.5299999999999997E-3</v>
-      </c>
-      <c r="I9" s="32">
+        <v>0.37949999999999995</v>
+      </c>
+      <c r="I9" s="31">
         <f t="shared" si="2"/>
-        <v>2.6219512195121953E-3</v>
-      </c>
-      <c r="J9" s="32">
+        <v>0.39329268292682928</v>
+      </c>
+      <c r="J9" s="31">
         <f t="shared" ref="J9:J20" si="4">$A$3*H9</f>
-        <v>2.5299999999999997E-3</v>
-      </c>
-      <c r="K9" s="32">
+        <v>37.949999999999996</v>
+      </c>
+      <c r="K9" s="31">
         <f t="shared" ref="K9:K20" si="5">J9/$B$3</f>
-        <v>2.5299999999999997E-3</v>
+        <v>25.299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
         <v>6500</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>B10/1973.83</f>
         <v>3.2930900837458141</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.75</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>45</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="3"/>
         <v>38.25</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <f t="shared" si="1"/>
-        <v>1.75E-3</v>
-      </c>
-      <c r="I10" s="32">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="I10" s="31">
         <f t="shared" si="2"/>
-        <v>1.6538461538461537E-3</v>
-      </c>
-      <c r="J10" s="32">
+        <v>0.24807692307692308</v>
+      </c>
+      <c r="J10" s="31">
         <f t="shared" si="4"/>
-        <v>1.75E-3</v>
-      </c>
-      <c r="K10" s="32">
+        <v>26.25</v>
+      </c>
+      <c r="K10" s="31">
         <f t="shared" si="5"/>
-        <v>1.75E-3</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
         <v>10500</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>B11/1973.83</f>
         <v>5.3196070583586224</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>60</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I11" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="31">
         <f t="shared" si="2"/>
-        <v>1.0238095238095238E-3</v>
-      </c>
-      <c r="J11" s="32">
+        <v>0.15357142857142858</v>
+      </c>
+      <c r="J11" s="31">
         <f t="shared" si="4"/>
-        <v>1E-3</v>
-      </c>
-      <c r="K11" s="32">
+        <v>15</v>
+      </c>
+      <c r="K11" s="31">
         <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
         <v>16800</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>B12/1973.83</f>
         <v>8.5113712933737968</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.62</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>80</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <f t="shared" si="1"/>
-        <v>6.2E-4</v>
-      </c>
-      <c r="I12" s="32">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I12" s="31">
         <f t="shared" si="2"/>
-        <v>6.3988095238095243E-4</v>
-      </c>
-      <c r="J12" s="32">
+        <v>9.5982142857142863E-2</v>
+      </c>
+      <c r="J12" s="31">
         <f t="shared" si="4"/>
-        <v>6.2E-4</v>
-      </c>
-      <c r="K12" s="32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K12" s="31">
         <f t="shared" si="5"/>
-        <v>6.2E-4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
         <v>26600</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" ref="C13:C20" si="6">B13/1973.83</f>
         <v>13.476337881175178</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>120</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f>IF($F$3="No",IF($E$3="No",E13,F13),E13*0.7)</f>
         <v>120</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <f t="shared" si="1"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I13" s="32">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="31">
         <f t="shared" si="2"/>
-        <v>4.0413533834586464E-4</v>
-      </c>
-      <c r="J13" s="32">
+        <v>6.0620300751879699E-2</v>
+      </c>
+      <c r="J13" s="31">
         <f t="shared" si="4"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K13" s="32">
+        <v>6</v>
+      </c>
+      <c r="K13" s="31">
         <f t="shared" si="5"/>
-        <v>4.0000000000000002E-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
         <v>42000</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="6"/>
         <v>21.278428233434489</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.24</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>160</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="3"/>
         <v>136</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" ref="G14:G20" si="7">IF($F$3="No",IF($E$3="No",E14,F14),E14*0.7)</f>
         <v>160</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <f t="shared" si="1"/>
-        <v>2.3999999999999998E-4</v>
-      </c>
-      <c r="I14" s="32">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I14" s="31">
         <f t="shared" si="2"/>
-        <v>2.5595238095238096E-4</v>
-      </c>
-      <c r="J14" s="32">
+        <v>3.8392857142857145E-2</v>
+      </c>
+      <c r="J14" s="31">
         <f t="shared" si="4"/>
-        <v>2.3999999999999998E-4</v>
-      </c>
-      <c r="K14" s="32">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="K14" s="31">
         <f t="shared" si="5"/>
-        <v>2.3999999999999998E-4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1">
         <v>66500</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="6"/>
         <v>33.690844702937945</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.16</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>210</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="3"/>
         <v>178.5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <f t="shared" si="1"/>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="I15" s="32">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I15" s="31">
         <f t="shared" si="2"/>
-        <v>1.6165413533834587E-4</v>
-      </c>
-      <c r="J15" s="32">
+        <v>2.424812030075188E-2</v>
+      </c>
+      <c r="J15" s="31">
         <f t="shared" si="4"/>
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="K15" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="K15" s="31">
         <f t="shared" si="5"/>
-        <v>1.6000000000000001E-4</v>
+        <v>1.5999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
         <v>83690</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="6"/>
         <v>42.399801401336489</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.13</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>245</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>208.25</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="7"/>
         <v>245</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <f t="shared" si="1"/>
-        <v>1.3000000000000002E-4</v>
-      </c>
-      <c r="I16" s="32">
+        <v>1.95E-2</v>
+      </c>
+      <c r="I16" s="31">
         <f t="shared" si="2"/>
-        <v>1.2845023300274823E-4</v>
-      </c>
-      <c r="J16" s="32">
+        <v>1.9267534950412234E-2</v>
+      </c>
+      <c r="J16" s="31">
         <f t="shared" si="4"/>
-        <v>1.3000000000000002E-4</v>
-      </c>
-      <c r="K16" s="32">
+        <v>1.95</v>
+      </c>
+      <c r="K16" s="31">
         <f t="shared" si="5"/>
-        <v>1.3000000000000002E-4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1">
         <v>105600</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="6"/>
         <v>53.50004812977815</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>285</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>242.25</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="7"/>
         <v>285</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <f t="shared" si="1"/>
-        <v>1E-4</v>
-      </c>
-      <c r="I17" s="32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I17" s="31">
         <f t="shared" si="2"/>
-        <v>1.0179924242424243E-4</v>
-      </c>
-      <c r="J17" s="32">
+        <v>1.5269886363636364E-2</v>
+      </c>
+      <c r="J17" s="31">
         <f t="shared" si="4"/>
-        <v>1E-4</v>
-      </c>
-      <c r="K17" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="31">
         <f t="shared" si="5"/>
-        <v>1E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
         <v>133000</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="6"/>
         <v>67.381689405875889</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.08</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>330</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="3"/>
         <v>280.5</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="7"/>
         <v>330</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <f t="shared" si="1"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="I18" s="32">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I18" s="31">
         <f t="shared" si="2"/>
-        <v>8.0827067669172936E-5</v>
-      </c>
-      <c r="J18" s="32">
+        <v>1.212406015037594E-2</v>
+      </c>
+      <c r="J18" s="31">
         <f t="shared" si="4"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="K18" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="31">
         <f t="shared" si="5"/>
-        <v>8.0000000000000007E-5</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
         <v>167800</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="6"/>
         <v>85.012387085007319</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.06</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>385</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="3"/>
         <v>327.25</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="7"/>
         <v>385</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <f t="shared" si="1"/>
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="I19" s="32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I19" s="31">
         <f t="shared" si="2"/>
-        <v>6.4064362336114416E-5</v>
-      </c>
-      <c r="J19" s="32">
+        <v>9.6096543504171628E-3</v>
+      </c>
+      <c r="J19" s="31">
         <f t="shared" si="4"/>
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="K19" s="32">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K19" s="31">
         <f t="shared" si="5"/>
-        <v>5.9999999999999995E-5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
         <v>211600</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="6"/>
         <v>107.20274795701758</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.05</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>445</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>378.25</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="7"/>
         <v>445</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <f t="shared" si="1"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="I20" s="32">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="I20" s="31">
         <f t="shared" si="2"/>
-        <v>5.0803402646502838E-5</v>
-      </c>
-      <c r="J20" s="32">
+        <v>7.6205103969754252E-3</v>
+      </c>
+      <c r="J20" s="31">
         <f t="shared" si="4"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="K20" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="31">
         <f t="shared" si="5"/>
-        <v>5.0000000000000002E-5</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27">
+        <f>SUM(H32:H55)</f>
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28">
+        <f>SUM(G32:G55)</f>
+        <v>0.10650000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29">
+        <f>C28/C3*100</f>
+        <v>0.88750000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="42">
+        <v>100</v>
+      </c>
+      <c r="C32" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="42">
+        <v>4</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="45">
+        <f>IF(A32="", "", (B32*$B$3*VLOOKUP(A32,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H32" s="44">
+        <f>IF(G32="", "", $A$3*G32)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(A32="", "", IF(B32&lt;VLOOKUP(A32,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="42">
+        <v>400</v>
+      </c>
+      <c r="C33" s="42">
+        <v>5</v>
+      </c>
+      <c r="D33" s="42">
+        <v>1</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="45">
+        <f t="shared" ref="G33:G55" si="8">IF(A33="", "", (B33*$B$3*VLOOKUP(A33,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v>0.03</v>
+      </c>
+      <c r="H33" s="44">
+        <f t="shared" ref="H33:H55" si="9">IF(G33="", "", $A$3*G33)</f>
+        <v>3</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" ref="I33:I55" si="10">IF(A33="", "", IF(B33&lt;VLOOKUP(A33,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="42">
+        <v>100</v>
+      </c>
+      <c r="C34" s="42">
+        <v>2</v>
+      </c>
+      <c r="D34" s="42">
+        <v>1</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="45">
+        <f t="shared" si="8"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H34" s="44">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="42">
+        <v>100</v>
+      </c>
+      <c r="C35" s="42">
+        <v>12</v>
+      </c>
+      <c r="D35" s="42">
+        <v>1</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H35" s="44">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="42">
+        <v>100</v>
+      </c>
+      <c r="C36" s="42">
+        <v>7</v>
+      </c>
+      <c r="D36" s="42">
+        <v>1</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="45">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H36" s="44">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="42">
+        <v>100</v>
+      </c>
+      <c r="C37" s="42">
+        <v>10</v>
+      </c>
+      <c r="D37" s="42">
+        <v>2</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="45">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="H37" s="44">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H38" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H39" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H40" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H41" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H42" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H43" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H44" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H45" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H46" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H47" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H48" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H49" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H50" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H51" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H52" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H53" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H54" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="45" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H55" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A22:J25"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
+  <conditionalFormatting sqref="A32:I32">
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>$I32="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A8:K20">
-    <cfRule type="expression" dxfId="3" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="50" stopIfTrue="1">
       <formula>AND($B8&gt;$G$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="51" stopIfTrue="1">
       <formula>AND($B8&gt;$H$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="52" stopIfTrue="1">
       <formula>AND($B8&gt;$I$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="53" stopIfTrue="1">
       <formula>OR($B8&lt;$G$3, $G8&lt;$A$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
+  <conditionalFormatting sqref="A33:F33">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F55">
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+      <formula>$I34="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G55">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H55">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I55">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4 E32:F55" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32:A55" xr:uid="{B9776808-710B-4472-BA84-80BCEB8DD55A}">
+      <formula1>$A$8:$A$20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wire Calc.xlsx
+++ b/Wire Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wirecalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E663DEC-6FBC-4F35-9FE3-C4F5BA514E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019B4EC3-EA8F-4406-9DBC-5BEE13F87E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="6840" windowWidth="27945" windowHeight="20370" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
+    <workbookView xWindow="1020" yWindow="6840" windowWidth="28065" windowHeight="20610" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>CM</t>
   </si>
@@ -601,21 +601,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -666,13 +652,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1431,8 +1410,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2204,7 @@
       </c>
       <c r="B27" s="43"/>
       <c r="C27">
-        <f>SUM(H32:H55)</f>
+        <f>SUM(G32:G55)</f>
         <v>10.65</v>
       </c>
     </row>
@@ -2235,7 +2214,7 @@
       </c>
       <c r="B28" s="43"/>
       <c r="C28">
-        <f>SUM(G32:G55)</f>
+        <f>SUM(F32:F55)</f>
         <v>0.10650000000000001</v>
       </c>
     </row>
@@ -2260,21 +2239,18 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2288,29 +2264,26 @@
       <c r="C32" s="42">
         <v>1.5</v>
       </c>
-      <c r="D32" s="42">
-        <v>4</v>
+      <c r="D32" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="E32" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="45">
+      <c r="F32" s="45">
         <f>IF(A32="", "", (B32*$B$3*VLOOKUP(A32,$A$8:$D$20,4,FALSE)/1000))</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H32" s="44">
-        <f>IF(G32="", "", $A$3*G32)</f>
+      <c r="G32" s="44">
+        <f>IF(F32="", "", $A$3*F32)</f>
         <v>1.5</v>
       </c>
-      <c r="I32" t="str">
+      <c r="H32" t="str">
         <f>IF(A32="", "", IF(B32&lt;VLOOKUP(A32,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>27</v>
       </c>
@@ -2320,29 +2293,26 @@
       <c r="C33" s="42">
         <v>5</v>
       </c>
-      <c r="D33" s="42">
-        <v>1</v>
+      <c r="D33" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="45">
-        <f t="shared" ref="G33:G55" si="8">IF(A33="", "", (B33*$B$3*VLOOKUP(A33,$A$8:$D$20,4,FALSE)/1000))</f>
+      <c r="F33" s="45">
+        <f>IF(A33="", "", (B33*$B$3*VLOOKUP(A33,$A$8:$D$20,4,FALSE)/1000))</f>
         <v>0.03</v>
       </c>
-      <c r="H33" s="44">
-        <f t="shared" ref="H33:H55" si="9">IF(G33="", "", $A$3*G33)</f>
+      <c r="G33" s="44">
+        <f t="shared" ref="G33:G55" si="8">IF(F33="", "", $A$3*F33)</f>
         <v>3</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" ref="I33:I55" si="10">IF(A33="", "", IF(B33&lt;VLOOKUP(A33,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+      <c r="H33" t="str">
+        <f>IF(A33="", "", IF(B33&lt;VLOOKUP(A33,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>35</v>
       </c>
@@ -2352,29 +2322,26 @@
       <c r="C34" s="42">
         <v>2</v>
       </c>
-      <c r="D34" s="42">
-        <v>1</v>
+      <c r="D34" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="45">
+      <c r="F34" s="45">
+        <f>IF(A34="", "", (B34*$B$3*VLOOKUP(A34,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="G34" s="44">
         <f t="shared" si="8"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="H34" s="44">
-        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="I34" t="str">
-        <f t="shared" si="10"/>
+      <c r="H34" t="str">
+        <f>IF(A34="", "", IF(B34&lt;VLOOKUP(A34,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>37</v>
       </c>
@@ -2384,29 +2351,26 @@
       <c r="C35" s="42">
         <v>12</v>
       </c>
-      <c r="D35" s="42">
-        <v>1</v>
+      <c r="D35" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="45">
+      <c r="F35" s="45">
+        <f>IF(A35="", "", (B35*$B$3*VLOOKUP(A35,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G35" s="44">
         <f t="shared" si="8"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H35" s="44">
-        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" si="10"/>
+      <c r="H35" t="str">
+        <f>IF(A35="", "", IF(B35&lt;VLOOKUP(A35,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>37</v>
       </c>
@@ -2416,29 +2380,26 @@
       <c r="C36" s="42">
         <v>7</v>
       </c>
-      <c r="D36" s="42">
-        <v>1</v>
+      <c r="D36" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="45">
+      <c r="F36" s="45">
+        <f>IF(A36="", "", (B36*$B$3*VLOOKUP(A36,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G36" s="44">
         <f t="shared" si="8"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H36" s="44">
-        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="I36" t="str">
-        <f t="shared" si="10"/>
+      <c r="H36" t="str">
+        <f>IF(A36="", "", IF(B36&lt;VLOOKUP(A36,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>27</v>
       </c>
@@ -2448,385 +2409,364 @@
       <c r="C37" s="42">
         <v>10</v>
       </c>
-      <c r="D37" s="42">
-        <v>2</v>
+      <c r="D37" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="45">
+      <c r="F37" s="45">
+        <f>IF(A37="", "", (B37*$B$3*VLOOKUP(A37,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G37" s="44">
         <f t="shared" si="8"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="H37" s="44">
-        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" si="10"/>
+      <c r="H37" t="str">
+        <f>IF(A37="", "", IF(B37&lt;VLOOKUP(A37,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="46"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="45" t="str">
+      <c r="F38" s="45" t="str">
+        <f>IF(A38="", "", (B38*$B$3*VLOOKUP(A38,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G38" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H38" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I38" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <f>IF(A38="", "", IF(B38&lt;VLOOKUP(A38,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="45" t="str">
+      <c r="F39" s="45" t="str">
+        <f>IF(A39="", "", (B39*$B$3*VLOOKUP(A39,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G39" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H39" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <f>IF(A39="", "", IF(B39&lt;VLOOKUP(A39,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="45" t="str">
+      <c r="F40" s="45" t="str">
+        <f>IF(A40="", "", (B40*$B$3*VLOOKUP(A40,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G40" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H40" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I40" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <f>IF(A40="", "", IF(B40&lt;VLOOKUP(A40,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="45" t="str">
+      <c r="F41" s="45" t="str">
+        <f>IF(A41="", "", (B41*$B$3*VLOOKUP(A41,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G41" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H41" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I41" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <f>IF(A41="", "", IF(B41&lt;VLOOKUP(A41,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="45" t="str">
+      <c r="F42" s="45" t="str">
+        <f>IF(A42="", "", (B42*$B$3*VLOOKUP(A42,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G42" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H42" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I42" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <f>IF(A42="", "", IF(B42&lt;VLOOKUP(A42,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="45" t="str">
+      <c r="F43" s="45" t="str">
+        <f>IF(A43="", "", (B43*$B$3*VLOOKUP(A43,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G43" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H43" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I43" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43" t="str">
+        <f>IF(A43="", "", IF(B43&lt;VLOOKUP(A43,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="45" t="str">
+      <c r="F44" s="45" t="str">
+        <f>IF(A44="", "", (B44*$B$3*VLOOKUP(A44,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G44" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H44" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I44" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44" t="str">
+        <f>IF(A44="", "", IF(B44&lt;VLOOKUP(A44,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="46"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="45" t="str">
+      <c r="F45" s="45" t="str">
+        <f>IF(A45="", "", (B45*$B$3*VLOOKUP(A45,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G45" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H45" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45" t="str">
+        <f>IF(A45="", "", IF(B45&lt;VLOOKUP(A45,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="46"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="45" t="str">
+      <c r="F46" s="45" t="str">
+        <f>IF(A46="", "", (B46*$B$3*VLOOKUP(A46,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G46" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H46" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46" t="str">
+        <f>IF(A46="", "", IF(B46&lt;VLOOKUP(A46,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="45" t="str">
+      <c r="F47" s="45" t="str">
+        <f>IF(A47="", "", (B47*$B$3*VLOOKUP(A47,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G47" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H47" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I47" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47" t="str">
+        <f>IF(A47="", "", IF(B47&lt;VLOOKUP(A47,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="46"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="45" t="str">
+      <c r="F48" s="45" t="str">
+        <f>IF(A48="", "", (B48*$B$3*VLOOKUP(A48,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G48" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H48" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" t="str">
+        <f>IF(A48="", "", IF(B48&lt;VLOOKUP(A48,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="46"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="45" t="str">
+      <c r="F49" s="45" t="str">
+        <f>IF(A49="", "", (B49*$B$3*VLOOKUP(A49,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G49" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H49" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" t="str">
+        <f>IF(A49="", "", IF(B49&lt;VLOOKUP(A49,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="46"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="45" t="str">
+      <c r="F50" s="45" t="str">
+        <f>IF(A50="", "", (B50*$B$3*VLOOKUP(A50,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G50" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H50" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" t="str">
+        <f>IF(A50="", "", IF(B50&lt;VLOOKUP(A50,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="46"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="45" t="str">
+      <c r="F51" s="45" t="str">
+        <f>IF(A51="", "", (B51*$B$3*VLOOKUP(A51,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G51" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H51" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" t="str">
+        <f>IF(A51="", "", IF(B51&lt;VLOOKUP(A51,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="46"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
       <c r="D52" s="42"/>
       <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="45" t="str">
+      <c r="F52" s="45" t="str">
+        <f>IF(A52="", "", (B52*$B$3*VLOOKUP(A52,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G52" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H52" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I52" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" t="str">
+        <f>IF(A52="", "", IF(B52&lt;VLOOKUP(A52,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="46"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="45" t="str">
+      <c r="F53" s="45" t="str">
+        <f>IF(A53="", "", (B53*$B$3*VLOOKUP(A53,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G53" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H53" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I53" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" t="str">
+        <f>IF(A53="", "", IF(B53&lt;VLOOKUP(A53,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="46"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="45" t="str">
+      <c r="F54" s="45" t="str">
+        <f>IF(A54="", "", (B54*$B$3*VLOOKUP(A54,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G54" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H54" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" t="str">
+        <f>IF(A54="", "", IF(B54&lt;VLOOKUP(A54,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="45" t="str">
+      <c r="F55" s="45" t="str">
+        <f>IF(A55="", "", (B55*$B$3*VLOOKUP(A55,$A$8:$D$20,4,FALSE)/1000))</f>
+        <v/>
+      </c>
+      <c r="G55" s="44" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H55" s="44" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I55" t="str">
-        <f t="shared" si="10"/>
+      <c r="H55" t="str">
+        <f>IF(A55="", "", IF(B55&lt;VLOOKUP(A55,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
@@ -2840,52 +2780,37 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A32:I32">
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
-      <formula>$I32="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A8:K20">
-    <cfRule type="expression" dxfId="8" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="50" stopIfTrue="1">
       <formula>AND($B8&gt;$G$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="51" stopIfTrue="1">
       <formula>AND($B8&gt;$H$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="52" stopIfTrue="1">
       <formula>AND($B8&gt;$I$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="53" stopIfTrue="1">
       <formula>OR($B8&lt;$G$3, $G8&lt;$A$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33">
-    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
-      <formula>$I33="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:F55">
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
-      <formula>$I34="Yes"</formula>
+  <conditionalFormatting sqref="A32:H32 A33:F55">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>$H32="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G55">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
-      <formula>$I33="Yes"</formula>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$H33="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H55">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$I33="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I55">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$I33="Yes"</formula>
+      <formula>$H33="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4 E32:F55" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4 D32:E55" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32:A55" xr:uid="{B9776808-710B-4472-BA84-80BCEB8DD55A}">

--- a/Wire Calc.xlsx
+++ b/Wire Calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wirecalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019B4EC3-EA8F-4406-9DBC-5BEE13F87E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E901F-6BC7-4518-AB3B-0D408C8C0067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="6840" windowWidth="28065" windowHeight="20610" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
+    <workbookView xWindow="1035" yWindow="6825" windowWidth="28065" windowHeight="20610" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>CM</t>
   </si>
@@ -601,7 +601,28 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -652,6 +673,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1411,7 +1439,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,8 +2232,8 @@
       </c>
       <c r="B27" s="43"/>
       <c r="C27">
-        <f>SUM(G32:G55)</f>
-        <v>10.65</v>
+        <f>SUM(H32:H55)</f>
+        <v>10.275</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2214,8 +2242,8 @@
       </c>
       <c r="B28" s="43"/>
       <c r="C28">
-        <f>SUM(F32:F55)</f>
-        <v>0.10650000000000001</v>
+        <f>SUM(G32:G55)</f>
+        <v>0.10275000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2225,7 +2253,7 @@
       <c r="B29" s="43"/>
       <c r="C29">
         <f>C28/C3*100</f>
-        <v>0.88750000000000007</v>
+        <v>0.85625000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2239,18 +2267,21 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>21</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2264,26 +2295,29 @@
       <c r="C32" s="42">
         <v>1.5</v>
       </c>
-      <c r="D32" s="42" t="s">
-        <v>13</v>
+      <c r="D32" s="42">
+        <v>1</v>
       </c>
       <c r="E32" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="45">
-        <f>IF(A32="", "", (B32*$B$3*VLOOKUP(A32,$A$8:$D$20,4,FALSE)/1000))</f>
+      <c r="F32" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="45">
+        <f>IF(A32="", "", (B32*$B$3*VLOOKUP(A32,$A$8:$D$20,4,FALSE)/1000/D32))</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G32" s="44">
-        <f>IF(F32="", "", $A$3*F32)</f>
+      <c r="H32" s="44">
+        <f>IF(G32="", "", $A$3*G32)</f>
         <v>1.5</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <f>IF(A32="", "", IF(B32&lt;VLOOKUP(A32,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>27</v>
       </c>
@@ -2293,26 +2327,29 @@
       <c r="C33" s="42">
         <v>5</v>
       </c>
-      <c r="D33" s="42" t="s">
-        <v>13</v>
+      <c r="D33" s="42">
+        <v>1</v>
       </c>
       <c r="E33" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="45">
-        <f>IF(A33="", "", (B33*$B$3*VLOOKUP(A33,$A$8:$D$20,4,FALSE)/1000))</f>
+      <c r="F33" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="45">
+        <f t="shared" ref="G33:G55" si="8">IF(A33="", "", (B33*$B$3*VLOOKUP(A33,$A$8:$D$20,4,FALSE)/1000/D33))</f>
         <v>0.03</v>
       </c>
-      <c r="G33" s="44">
-        <f t="shared" ref="G33:G55" si="8">IF(F33="", "", $A$3*F33)</f>
+      <c r="H33" s="44">
+        <f t="shared" ref="H33:H55" si="9">IF(G33="", "", $A$3*G33)</f>
         <v>3</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <f>IF(A33="", "", IF(B33&lt;VLOOKUP(A33,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>35</v>
       </c>
@@ -2322,26 +2359,29 @@
       <c r="C34" s="42">
         <v>2</v>
       </c>
-      <c r="D34" s="42" t="s">
-        <v>13</v>
+      <c r="D34" s="42">
+        <v>1</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="45">
-        <f>IF(A34="", "", (B34*$B$3*VLOOKUP(A34,$A$8:$D$20,4,FALSE)/1000))</f>
+      <c r="F34" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="45">
+        <f t="shared" si="8"/>
         <v>2.4E-2</v>
       </c>
-      <c r="G34" s="44">
-        <f t="shared" si="8"/>
+      <c r="H34" s="44">
+        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
         <f>IF(A34="", "", IF(B34&lt;VLOOKUP(A34,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>37</v>
       </c>
@@ -2351,26 +2391,29 @@
       <c r="C35" s="42">
         <v>12</v>
       </c>
-      <c r="D35" s="42" t="s">
-        <v>13</v>
+      <c r="D35" s="42">
+        <v>1</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="45">
-        <f>IF(A35="", "", (B35*$B$3*VLOOKUP(A35,$A$8:$D$20,4,FALSE)/1000))</f>
+      <c r="F35" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" si="8"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G35" s="44">
-        <f t="shared" si="8"/>
+      <c r="H35" s="44">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <f>IF(A35="", "", IF(B35&lt;VLOOKUP(A35,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>37</v>
       </c>
@@ -2380,26 +2423,29 @@
       <c r="C36" s="42">
         <v>7</v>
       </c>
-      <c r="D36" s="42" t="s">
-        <v>13</v>
+      <c r="D36" s="42">
+        <v>1</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="45">
-        <f>IF(A36="", "", (B36*$B$3*VLOOKUP(A36,$A$8:$D$20,4,FALSE)/1000))</f>
+      <c r="F36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="45">
+        <f t="shared" si="8"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G36" s="44">
-        <f t="shared" si="8"/>
+      <c r="H36" s="44">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="H36" t="str">
+      <c r="I36" t="str">
         <f>IF(A36="", "", IF(B36&lt;VLOOKUP(A36,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>27</v>
       </c>
@@ -2409,363 +2455,384 @@
       <c r="C37" s="42">
         <v>10</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>13</v>
+      <c r="D37" s="42">
+        <v>2</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="45">
-        <f>IF(A37="", "", (B37*$B$3*VLOOKUP(A37,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G37" s="44">
+      <c r="F37" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="45">
         <f t="shared" si="8"/>
-        <v>0.75</v>
-      </c>
-      <c r="H37" t="str">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="H37" s="44">
+        <f t="shared" si="9"/>
+        <v>0.375</v>
+      </c>
+      <c r="I37" t="str">
         <f>IF(A37="", "", IF(B37&lt;VLOOKUP(A37,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v>No</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="46"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="45" t="str">
-        <f>IF(A38="", "", (B38*$B$3*VLOOKUP(A38,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G38" s="44" t="str">
+      <c r="F38" s="42"/>
+      <c r="G38" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I38" t="str">
         <f>IF(A38="", "", IF(B38&lt;VLOOKUP(A38,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
-      <c r="F39" s="45" t="str">
-        <f>IF(A39="", "", (B39*$B$3*VLOOKUP(A39,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G39" s="44" t="str">
+      <c r="F39" s="42"/>
+      <c r="G39" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I39" t="str">
         <f>IF(A39="", "", IF(B39&lt;VLOOKUP(A39,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
-      <c r="F40" s="45" t="str">
-        <f>IF(A40="", "", (B40*$B$3*VLOOKUP(A40,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G40" s="44" t="str">
+      <c r="F40" s="42"/>
+      <c r="G40" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I40" t="str">
         <f>IF(A40="", "", IF(B40&lt;VLOOKUP(A40,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="45" t="str">
-        <f>IF(A41="", "", (B41*$B$3*VLOOKUP(A41,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G41" s="44" t="str">
+      <c r="F41" s="42"/>
+      <c r="G41" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I41" t="str">
         <f>IF(A41="", "", IF(B41&lt;VLOOKUP(A41,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="45" t="str">
-        <f>IF(A42="", "", (B42*$B$3*VLOOKUP(A42,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G42" s="44" t="str">
+      <c r="F42" s="42"/>
+      <c r="G42" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I42" t="str">
         <f>IF(A42="", "", IF(B42&lt;VLOOKUP(A42,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="45" t="str">
-        <f>IF(A43="", "", (B43*$B$3*VLOOKUP(A43,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G43" s="44" t="str">
+      <c r="F43" s="42"/>
+      <c r="G43" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I43" t="str">
         <f>IF(A43="", "", IF(B43&lt;VLOOKUP(A43,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
-      <c r="F44" s="45" t="str">
-        <f>IF(A44="", "", (B44*$B$3*VLOOKUP(A44,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G44" s="44" t="str">
+      <c r="F44" s="42"/>
+      <c r="G44" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
         <f>IF(A44="", "", IF(B44&lt;VLOOKUP(A44,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="46"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
-      <c r="F45" s="45" t="str">
-        <f>IF(A45="", "", (B45*$B$3*VLOOKUP(A45,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G45" s="44" t="str">
+      <c r="F45" s="42"/>
+      <c r="G45" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I45" t="str">
         <f>IF(A45="", "", IF(B45&lt;VLOOKUP(A45,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="46"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
-      <c r="F46" s="45" t="str">
-        <f>IF(A46="", "", (B46*$B$3*VLOOKUP(A46,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G46" s="44" t="str">
+      <c r="F46" s="42"/>
+      <c r="G46" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I46" t="str">
         <f>IF(A46="", "", IF(B46&lt;VLOOKUP(A46,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="46"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="45" t="str">
-        <f>IF(A47="", "", (B47*$B$3*VLOOKUP(A47,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G47" s="44" t="str">
+      <c r="F47" s="42"/>
+      <c r="G47" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I47" t="str">
         <f>IF(A47="", "", IF(B47&lt;VLOOKUP(A47,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="46"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="45" t="str">
-        <f>IF(A48="", "", (B48*$B$3*VLOOKUP(A48,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G48" s="44" t="str">
+      <c r="F48" s="42"/>
+      <c r="G48" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I48" t="str">
         <f>IF(A48="", "", IF(B48&lt;VLOOKUP(A48,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="46"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
-      <c r="F49" s="45" t="str">
-        <f>IF(A49="", "", (B49*$B$3*VLOOKUP(A49,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G49" s="44" t="str">
+      <c r="F49" s="42"/>
+      <c r="G49" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I49" t="str">
         <f>IF(A49="", "", IF(B49&lt;VLOOKUP(A49,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="46"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
-      <c r="F50" s="45" t="str">
-        <f>IF(A50="", "", (B50*$B$3*VLOOKUP(A50,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G50" s="44" t="str">
+      <c r="F50" s="42"/>
+      <c r="G50" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I50" t="str">
         <f>IF(A50="", "", IF(B50&lt;VLOOKUP(A50,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="46"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
-      <c r="F51" s="45" t="str">
-        <f>IF(A51="", "", (B51*$B$3*VLOOKUP(A51,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G51" s="44" t="str">
+      <c r="F51" s="42"/>
+      <c r="G51" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I51" t="str">
         <f>IF(A51="", "", IF(B51&lt;VLOOKUP(A51,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="46"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
       <c r="D52" s="42"/>
       <c r="E52" s="42"/>
-      <c r="F52" s="45" t="str">
-        <f>IF(A52="", "", (B52*$B$3*VLOOKUP(A52,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G52" s="44" t="str">
+      <c r="F52" s="42"/>
+      <c r="G52" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I52" t="str">
         <f>IF(A52="", "", IF(B52&lt;VLOOKUP(A52,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="46"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
-      <c r="F53" s="45" t="str">
-        <f>IF(A53="", "", (B53*$B$3*VLOOKUP(A53,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G53" s="44" t="str">
+      <c r="F53" s="42"/>
+      <c r="G53" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H53" t="str">
+      <c r="H53" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I53" t="str">
         <f>IF(A53="", "", IF(B53&lt;VLOOKUP(A53,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="46"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
-      <c r="F54" s="45" t="str">
-        <f>IF(A54="", "", (B54*$B$3*VLOOKUP(A54,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G54" s="44" t="str">
+      <c r="F54" s="42"/>
+      <c r="G54" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I54" t="str">
         <f>IF(A54="", "", IF(B54&lt;VLOOKUP(A54,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
-      <c r="F55" s="45" t="str">
-        <f>IF(A55="", "", (B55*$B$3*VLOOKUP(A55,$A$8:$D$20,4,FALSE)/1000))</f>
-        <v/>
-      </c>
-      <c r="G55" s="44" t="str">
+      <c r="F55" s="42"/>
+      <c r="G55" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H55" t="str">
+      <c r="H55" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I55" t="str">
         <f>IF(A55="", "", IF(B55&lt;VLOOKUP(A55,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
         <v/>
       </c>
@@ -2780,37 +2847,52 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
   </mergeCells>
+  <conditionalFormatting sqref="A32:I32">
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
+      <formula>$I32="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A8:K20">
-    <cfRule type="expression" dxfId="6" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="51" stopIfTrue="1">
       <formula>AND($B8&gt;$G$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="52" stopIfTrue="1">
       <formula>AND($B8&gt;$H$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="53" stopIfTrue="1">
       <formula>AND($B8&gt;$I$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="54" stopIfTrue="1">
       <formula>OR($B8&lt;$G$3, $G8&lt;$A$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:H32 A33:F55">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
-      <formula>$H32="Yes"</formula>
+  <conditionalFormatting sqref="A33:F33">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F55">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+      <formula>$I34="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H55">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I55">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G55">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>$H33="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H55">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$H33="Yes"</formula>
+      <formula>$I33="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4 D32:E55" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4 E32:F55" xr:uid="{71FC2F0A-9AEE-4608-BFDF-A92103A932CF}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32:A55" xr:uid="{B9776808-710B-4472-BA84-80BCEB8DD55A}">

--- a/Wire Calc.xlsx
+++ b/Wire Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wirecalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0E901F-6BC7-4518-AB3B-0D408C8C0067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB5B031-2A77-4246-85A9-FE12F6921477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="6825" windowWidth="28065" windowHeight="20610" xr2:uid="{E0713C13-BED5-45FF-8D40-BABC9E5C5553}"/>
   </bookViews>
@@ -601,7 +601,28 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1439,7 +1460,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2254,7 @@
       <c r="B27" s="43"/>
       <c r="C27">
         <f>SUM(H32:H55)</f>
-        <v>10.275</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2243,7 +2264,7 @@
       <c r="B28" s="43"/>
       <c r="C28">
         <f>SUM(G32:G55)</f>
-        <v>0.10275000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2253,7 +2274,7 @@
       <c r="B29" s="43"/>
       <c r="C29">
         <f>C28/C3*100</f>
-        <v>0.85625000000000007</v>
+        <v>3.3083333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2305,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="45">
-        <f>IF(A32="", "", (B32*$B$3*VLOOKUP(A32,$A$8:$D$20,4,FALSE)/1000/D32))</f>
+        <f>IF(A32="", "", (B32*C32*VLOOKUP(A32,$A$8:$D$20,4,FALSE)/1000/D32))</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H32" s="44">
@@ -2337,12 +2358,12 @@
         <v>13</v>
       </c>
       <c r="G33" s="45">
-        <f t="shared" ref="G33:G55" si="8">IF(A33="", "", (B33*$B$3*VLOOKUP(A33,$A$8:$D$20,4,FALSE)/1000/D33))</f>
-        <v>0.03</v>
+        <f t="shared" ref="G33:G55" si="8">IF(A33="", "", (B33*C33*VLOOKUP(A33,$A$8:$D$20,4,FALSE)/1000/D33))</f>
+        <v>0.1</v>
       </c>
       <c r="H33" s="44">
         <f t="shared" ref="H33:H55" si="9">IF(G33="", "", $A$3*G33)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I33" t="str">
         <f>IF(A33="", "", IF(B33&lt;VLOOKUP(A33,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
@@ -2370,11 +2391,11 @@
       </c>
       <c r="G34" s="45">
         <f t="shared" si="8"/>
-        <v>2.4E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H34" s="44">
         <f t="shared" si="9"/>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="str">
         <f>IF(A34="", "", IF(B34&lt;VLOOKUP(A34,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
@@ -2389,7 +2410,7 @@
         <v>100</v>
       </c>
       <c r="C35" s="42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" s="42">
         <v>1</v>
@@ -2402,11 +2423,11 @@
       </c>
       <c r="G35" s="45">
         <f t="shared" si="8"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H35" s="44">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="I35" t="str">
         <f>IF(A35="", "", IF(B35&lt;VLOOKUP(A35,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
@@ -2421,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="C36" s="42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" s="42">
         <v>1</v>
@@ -2434,11 +2455,11 @@
       </c>
       <c r="G36" s="45">
         <f t="shared" si="8"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="44">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I36" t="str">
         <f>IF(A36="", "", IF(B36&lt;VLOOKUP(A36,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
@@ -2450,7 +2471,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="42">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C37" s="42">
         <v>10</v>
@@ -2466,11 +2487,11 @@
       </c>
       <c r="G37" s="45">
         <f t="shared" si="8"/>
-        <v>3.7499999999999999E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H37" s="44">
         <f t="shared" si="9"/>
-        <v>0.375</v>
+        <v>10</v>
       </c>
       <c r="I37" t="str">
         <f>IF(A37="", "", IF(B37&lt;VLOOKUP(A37,$A$8:$E$20,5,FALSE),"No","Yes"))</f>
@@ -2848,47 +2869,52 @@
     <mergeCell ref="A28:B28"/>
   </mergeCells>
   <conditionalFormatting sqref="A32:I32">
-    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="19" stopIfTrue="1">
       <formula>$I32="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:K20">
-    <cfRule type="expression" dxfId="9" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="54" stopIfTrue="1">
       <formula>AND($B8&gt;$G$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="55" stopIfTrue="1">
       <formula>AND($B8&gt;$H$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="56" stopIfTrue="1">
       <formula>AND($B8&gt;$I$3, $G8&gt;=$A$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="57" stopIfTrue="1">
       <formula>OR($B8&lt;$G$3, $G8&lt;$A$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:F33">
-    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
       <formula>$I33="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:F55">
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
       <formula>$I34="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H55">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>$I33="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I55">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>$I33="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G37">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$I33="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G55">
+  <conditionalFormatting sqref="G38:G55">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>$I33="Yes"</formula>
+      <formula>$I38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
